--- a/data/trans_bre/P23_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-21.58172039430197</v>
+        <v>-21.0627058806187</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-13.54371375536888</v>
+        <v>-14.35275858771386</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-18.71431295277176</v>
+        <v>-18.20726036787832</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.852906192075652</v>
+        <v>-9.200582430190906</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5050397462606452</v>
+        <v>-0.5095535889037284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.3201575612477894</v>
+        <v>-0.3366568454453363</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4651284975851249</v>
+        <v>-0.4605381578328309</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.3453392505934718</v>
+        <v>-0.3257444267469067</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-5.356383830578322</v>
+        <v>-4.639831496281364</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.95892197707006</v>
+        <v>2.723902094166577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-2.829984681994175</v>
+        <v>-2.262597069915954</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.944689155153026</v>
+        <v>2.973039283040761</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.1539796823847516</v>
+        <v>-0.1448044291823845</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07709052542433248</v>
+        <v>0.07803453410109765</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.09789481989416629</v>
+        <v>-0.07236863459447263</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.1560672442387362</v>
+        <v>0.1447464667408138</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-19.82945147960354</v>
+        <v>-19.72847867749136</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-17.77419340600373</v>
+        <v>-18.3656280806366</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-20.09768367015992</v>
+        <v>-20.78243364248617</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-12.54186154378725</v>
+        <v>-12.73505796505554</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5055699439282282</v>
+        <v>-0.4969881362888114</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4196565392116714</v>
+        <v>-0.4302185935166534</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4580259355933853</v>
+        <v>-0.4605504643390403</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4252783503596695</v>
+        <v>-0.4270139066188541</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-7.844416291524651</v>
+        <v>-7.614711185096789</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-5.351138468523504</v>
+        <v>-6.386614880413517</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-8.608886187842774</v>
+        <v>-9.052534250877999</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-1.390857576591653</v>
+        <v>-1.266148901048046</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.2419931736603166</v>
+        <v>-0.223934928781389</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.1469648590728649</v>
+        <v>-0.1699728199236743</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.2218894871060614</v>
+        <v>-0.2329988154367399</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.06168772440720763</v>
+        <v>-0.05672958522659953</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-22.40580481991555</v>
+        <v>-22.3828563161616</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-20.71138583723209</v>
+        <v>-20.54356166634729</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-12.67093874606254</v>
+        <v>-12.60883572601208</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-13.00097987810043</v>
+        <v>-13.36271926498982</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4681997896113805</v>
+        <v>-0.4757990273166811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.4849814269272987</v>
+        <v>-0.4876137085802222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3825767245275378</v>
+        <v>-0.3768558546856483</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.4480360939885081</v>
+        <v>-0.4538691445200904</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-7.773974740066443</v>
+        <v>-7.89155705194826</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.610444533044734</v>
+        <v>-5.980300223666358</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3639158951407374</v>
+        <v>0.8097188769137136</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.195997051384995</v>
+        <v>-1.009022307131908</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.1926972507432375</v>
+        <v>-0.2038476826543605</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.1545972155259034</v>
+        <v>-0.1676221170980489</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01391243246602018</v>
+        <v>0.02903344594186461</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.05223912799846368</v>
+        <v>-0.04452917956039128</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-9.473131883425351</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-5.796676302764742</v>
+        <v>-5.796676302764739</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.411313538474898</v>
@@ -949,7 +949,7 @@
         <v>-0.2516191701915906</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2336553371999332</v>
+        <v>-0.2336553371999331</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-25.74838565441329</v>
+        <v>-24.82873583155633</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.79923911906748</v>
+        <v>-12.04295202922959</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-15.78722931398869</v>
+        <v>-16.70824835887124</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-13.44041921629072</v>
+        <v>-12.88716943032994</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5280403593817946</v>
+        <v>-0.5183224814188391</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3361700373431517</v>
+        <v>-0.3447306734460338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.3917216245755744</v>
+        <v>-0.4022387415059134</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4466983081484761</v>
+        <v>-0.4319978998516786</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-11.36425200636098</v>
+        <v>-11.55859423026953</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.7206906071567</v>
+        <v>2.472962547589579</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-2.37523144135431</v>
+        <v>-2.881734028922951</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.050197484505701</v>
+        <v>1.138041525719647</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2779430356067918</v>
+        <v>-0.2773470861773097</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07050216396721551</v>
+        <v>0.08622204695811658</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.06760265672580813</v>
+        <v>-0.08435613695049442</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05009463205160552</v>
+        <v>0.06093838058365879</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-14.39093386304193</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-5.834660465838562</v>
+        <v>-5.834660465838567</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.2950113279301421</v>
@@ -1049,7 +1049,7 @@
         <v>-0.3570582744185645</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2918195557050008</v>
+        <v>-0.2918195557050011</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-20.47916324708319</v>
+        <v>-19.84813394031986</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-21.47910081905591</v>
+        <v>-21.14327695359768</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-23.08709271817283</v>
+        <v>-22.44009000509367</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.56449302084573</v>
+        <v>-11.83691127869392</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4775708496301884</v>
+        <v>-0.473179037002003</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4522633071024159</v>
+        <v>-0.4570233429390255</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5186063114312589</v>
+        <v>-0.5045928173463194</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.5137198180375874</v>
+        <v>-0.4997134684450402</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.649935310801205</v>
+        <v>-1.946369756281321</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-2.709633681720999</v>
+        <v>-3.062494454080323</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.27413478720534</v>
+        <v>-4.916117956955892</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-0.6183367614367491</v>
+        <v>0.05651992957031483</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.05137391429189955</v>
+        <v>-0.06336618487374519</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.06888205264271442</v>
+        <v>-0.07818403649087104</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1437778018263501</v>
+        <v>-0.1456396119916317</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.03345394986636561</v>
+        <v>-0.01185655196398418</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-6.781972243552437</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-9.530645745370817</v>
+        <v>-9.530645745370824</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.502001123219337</v>
@@ -1149,7 +1149,7 @@
         <v>-0.2022543836352304</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3395864797839093</v>
+        <v>-0.3395864797839095</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-31.49641123743872</v>
+        <v>-30.85237616803416</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-13.4890819837297</v>
+        <v>-13.79121483863709</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-14.37739962687693</v>
+        <v>-14.98646258548401</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-15.59787811022911</v>
+        <v>-15.34330468968523</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6244804500941168</v>
+        <v>-0.6222477007952757</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4040166974268367</v>
+        <v>-0.4043416791786924</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3925629303454871</v>
+        <v>-0.398252080093727</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4944241634456085</v>
+        <v>-0.4871435389477449</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-15.47789568078748</v>
+        <v>-15.69483471038564</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.400467334994787</v>
+        <v>1.340194521950693</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.580526076011252</v>
+        <v>0.5378665067949481</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-3.350943272263583</v>
+        <v>-3.023083157879717</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3682268082395082</v>
+        <v>-0.3697432153268764</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05392883788925248</v>
+        <v>0.05647120040663407</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05340185796100522</v>
+        <v>0.02539236297259135</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1345776047937265</v>
+        <v>-0.1171866126169072</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-16.49490079243092</v>
+        <v>-16.87667388538322</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-16.76271075297332</v>
+        <v>-16.41790706142098</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-9.81007995111257</v>
+        <v>-10.5203672085623</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.148117054564359</v>
+        <v>-8.461509941157031</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4182009429882951</v>
+        <v>-0.4291159572833901</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4083035825705408</v>
+        <v>-0.3964138331675583</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.307492307165782</v>
+        <v>-0.3179088258030748</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2759399996566607</v>
+        <v>-0.2802354369319389</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.43002920527131</v>
+        <v>-6.431466448700925</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-5.809254677467639</v>
+        <v>-6.021998117818259</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2845382345925325</v>
+        <v>0.1157358218492385</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.8943169253748351</v>
+        <v>1.043746523332695</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1875703331303393</v>
+        <v>-0.1856077673414114</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.1583434332912803</v>
+        <v>-0.1665119587952916</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.002228706472207978</v>
+        <v>0.003422772867431363</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.03599005304481673</v>
+        <v>0.04163563642084463</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>-6.821622151818863</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-10.02970232816939</v>
+        <v>-10.02970232816938</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.4288998181271094</v>
@@ -1349,7 +1349,7 @@
         <v>-0.2082347271820885</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.3812746757012602</v>
+        <v>-0.38127467570126</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-21.93614664548971</v>
+        <v>-21.97904999679483</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-15.45057066968913</v>
+        <v>-15.27017518170868</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-11.50042776196927</v>
+        <v>-11.23617136940099</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-14.37107384293796</v>
+        <v>-14.32062848330105</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5180572538141086</v>
+        <v>-0.514036312748115</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.4104290257840317</v>
+        <v>-0.4002944126714786</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3303402626820727</v>
+        <v>-0.3202748808129089</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.488337986341789</v>
+        <v>-0.4867533051313634</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>-12.38820765604075</v>
+        <v>-12.01601024517044</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-5.692655540245847</v>
+        <v>-5.742927122009294</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>-2.119220798352546</v>
+        <v>-2.298093367953811</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-5.834821646977347</v>
+        <v>-5.889910752701537</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.3332950122734185</v>
+        <v>-0.3194813811090005</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.1741799166606574</v>
+        <v>-0.1735087793196237</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.07281384213517308</v>
+        <v>-0.07621154762145982</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.2468725383266545</v>
+        <v>-0.2471220786117079</v>
       </c>
     </row>
     <row r="28">
@@ -1437,7 +1437,7 @@
         <v>-8.618435409294895</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-6.596757326203623</v>
+        <v>-6.596757326203625</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.3837713167823272</v>
@@ -1449,7 +1449,7 @@
         <v>-0.2485874753544713</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.258191109405278</v>
+        <v>-0.2581911094052781</v>
       </c>
     </row>
     <row r="29">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-17.58010048208848</v>
+        <v>-17.38880271675206</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-12.11473938998892</v>
+        <v>-12.04317998325805</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-11.03498612968204</v>
+        <v>-10.92831266839992</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.762700066597613</v>
+        <v>-8.797270953072958</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.4286140395398305</v>
+        <v>-0.4276202864336769</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.3200440593906588</v>
+        <v>-0.3182573251896404</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.30697451279171</v>
+        <v>-0.3031018248083613</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.3248673048527378</v>
+        <v>-0.3251631560685456</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-12.93842911611875</v>
+        <v>-12.85996769731355</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-7.58728030781536</v>
+        <v>-7.430402456661368</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-6.245283323771165</v>
+        <v>-6.412017524334619</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-4.675301983172993</v>
+        <v>-4.607598265242213</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.3372361833797471</v>
+        <v>-0.3327638103518208</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.210808310926945</v>
+        <v>-0.2106655424536729</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>-0.1849994559241177</v>
+        <v>-0.1905491815717912</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.1925028855782184</v>
+        <v>-0.1870672328664824</v>
       </c>
     </row>
     <row r="31">
